--- a/scraper/top_remaining_spreadsheets_states/top_remaining_CO.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_CO.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
   <si>
     <t>STATE</t>
   </si>
@@ -44,7 +44,7 @@
     <t>Win SUM Ca$h</t>
   </si>
   <si>
-    <t>2019-03-07</t>
+    <t>2019-03-12</t>
   </si>
   <si>
     <t>Reindeer Game$</t>
@@ -95,9 +95,6 @@
     <t>Winner$ Galore</t>
   </si>
   <si>
-    <t>2019-02-08</t>
-  </si>
-  <si>
     <t>$3.00 Games</t>
   </si>
   <si>
@@ -143,12 +140,12 @@
     <t>Super Break the Bank Bingo</t>
   </si>
   <si>
+    <t>Red Hot Riche$</t>
+  </si>
+  <si>
     <t>50X</t>
   </si>
   <si>
-    <t>Red Hot Riche$</t>
-  </si>
-  <si>
     <t>Colorado Wine Producers</t>
   </si>
   <si>
@@ -170,18 +167,6 @@
     <t>Ca$h Cache</t>
   </si>
   <si>
-    <t>Hot Numbers Multiplier</t>
-  </si>
-  <si>
-    <t>In the Green</t>
-  </si>
-  <si>
-    <t>Super, Giant, Enormous, Colossal Crossword</t>
-  </si>
-  <si>
-    <t>Cloud 9 Ca$h</t>
-  </si>
-  <si>
     <t>Super Special Cubed Bingo</t>
   </si>
   <si>
@@ -204,9 +189,6 @@
   </si>
   <si>
     <t>10 To Win</t>
-  </si>
-  <si>
-    <t>Ca$h Tsunami</t>
   </si>
   <si>
     <t>$250,000 Crossword Explosion!</t>
@@ -578,7 +560,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -620,7 +602,7 @@
         <v>834</v>
       </c>
       <c r="E2">
-        <v>2793</v>
+        <v>2722</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -700,7 +682,7 @@
         <v>103</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -800,7 +782,7 @@
         <v>104</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -920,7 +902,7 @@
         <v>830</v>
       </c>
       <c r="E17">
-        <v>2652</v>
+        <v>2602</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
@@ -951,19 +933,19 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D19">
-        <v>859</v>
+        <v>890</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -971,16 +953,16 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
       </c>
       <c r="D20">
-        <v>890</v>
+        <v>872</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F20" t="s">
         <v>9</v>
@@ -991,16 +973,16 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
         <v>29</v>
       </c>
       <c r="D21">
-        <v>872</v>
+        <v>108</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -1011,16 +993,16 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
         <v>30</v>
       </c>
       <c r="D22">
-        <v>108</v>
+        <v>889</v>
       </c>
       <c r="E22">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -1031,16 +1013,16 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
         <v>31</v>
       </c>
       <c r="D23">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" t="s">
         <v>9</v>
@@ -1051,13 +1033,13 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
         <v>32</v>
       </c>
       <c r="D24">
-        <v>882</v>
+        <v>843</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1071,16 +1053,16 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
         <v>33</v>
       </c>
       <c r="D25">
-        <v>843</v>
+        <v>105</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
@@ -1091,16 +1073,16 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
         <v>34</v>
       </c>
       <c r="D26">
-        <v>105</v>
+        <v>896</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
@@ -1111,13 +1093,13 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
         <v>35</v>
       </c>
       <c r="D27">
-        <v>896</v>
+        <v>865</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1131,13 +1113,13 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
         <v>36</v>
       </c>
       <c r="D28">
-        <v>865</v>
+        <v>887</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1151,13 +1133,13 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
         <v>37</v>
       </c>
       <c r="D29">
-        <v>887</v>
+        <v>871</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1171,16 +1153,16 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D30">
-        <v>871</v>
+        <v>819</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F30" t="s">
         <v>9</v>
@@ -1191,13 +1173,13 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
         <v>40</v>
       </c>
       <c r="D31">
-        <v>819</v>
+        <v>892</v>
       </c>
       <c r="E31">
         <v>2</v>
@@ -1211,16 +1193,16 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
         <v>41</v>
       </c>
       <c r="D32">
-        <v>892</v>
+        <v>880</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
@@ -1231,7 +1213,7 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
         <v>42</v>
@@ -1251,13 +1233,13 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
         <v>43</v>
       </c>
       <c r="D34">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1271,13 +1253,13 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
         <v>44</v>
       </c>
       <c r="D35">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -1291,16 +1273,16 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s">
         <v>45</v>
       </c>
       <c r="D36">
-        <v>866</v>
+        <v>897</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36" t="s">
         <v>9</v>
@@ -1311,13 +1293,13 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C37" t="s">
         <v>46</v>
       </c>
       <c r="D37">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="E37">
         <v>2</v>
@@ -1331,16 +1313,16 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s">
         <v>47</v>
       </c>
       <c r="D38">
-        <v>891</v>
+        <v>874</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38" t="s">
         <v>9</v>
@@ -1351,13 +1333,13 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C39" t="s">
         <v>48</v>
       </c>
       <c r="D39">
-        <v>874</v>
+        <v>845</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -1371,13 +1353,13 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C40" t="s">
         <v>49</v>
       </c>
       <c r="D40">
-        <v>845</v>
+        <v>883</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -1391,16 +1373,16 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C41" t="s">
         <v>50</v>
       </c>
       <c r="D41">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
@@ -1411,19 +1393,19 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C42" t="s">
         <v>51</v>
       </c>
       <c r="D42">
-        <v>814</v>
+        <v>833</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1431,19 +1413,19 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D43">
-        <v>799</v>
+        <v>862</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F43" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1451,19 +1433,19 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D44">
-        <v>844</v>
+        <v>107</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1471,19 +1453,19 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D45">
-        <v>832</v>
+        <v>893</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1491,16 +1473,16 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D46">
-        <v>873</v>
+        <v>112</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F46" t="s">
         <v>9</v>
@@ -1511,16 +1493,16 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D47">
-        <v>833</v>
+        <v>881</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F47" t="s">
         <v>9</v>
@@ -1531,16 +1513,16 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C48" t="s">
         <v>58</v>
       </c>
       <c r="D48">
-        <v>862</v>
+        <v>875</v>
       </c>
       <c r="E48">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F48" t="s">
         <v>9</v>
@@ -1551,16 +1533,16 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C49" t="s">
         <v>59</v>
       </c>
       <c r="D49">
-        <v>107</v>
+        <v>867</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
@@ -1571,16 +1553,16 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C50" t="s">
         <v>60</v>
       </c>
       <c r="D50">
-        <v>893</v>
+        <v>869</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" t="s">
         <v>9</v>
@@ -1591,16 +1573,16 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D51">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E51">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F51" t="s">
         <v>9</v>
@@ -1611,13 +1593,13 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C52" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D52">
-        <v>881</v>
+        <v>868</v>
       </c>
       <c r="E52">
         <v>2</v>
@@ -1631,19 +1613,19 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C53" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D53">
-        <v>857</v>
+        <v>863</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F53" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1651,13 +1633,13 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>64</v>
-      </c>
-      <c r="D54">
-        <v>875</v>
+        <v>65</v>
+      </c>
+      <c r="D54" t="s">
+        <v>66</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1671,138 +1653,18 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C55" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D55">
-        <v>867</v>
+        <v>856</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" t="s">
-        <v>6</v>
-      </c>
-      <c r="B56" t="s">
-        <v>57</v>
-      </c>
-      <c r="C56" t="s">
-        <v>66</v>
-      </c>
-      <c r="D56">
-        <v>869</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B57" t="s">
-        <v>67</v>
-      </c>
-      <c r="C57" t="s">
-        <v>68</v>
-      </c>
-      <c r="D57">
-        <v>113</v>
-      </c>
-      <c r="E57">
-        <v>6</v>
-      </c>
-      <c r="F57" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" t="s">
-        <v>6</v>
-      </c>
-      <c r="B58" t="s">
-        <v>67</v>
-      </c>
-      <c r="C58" t="s">
-        <v>69</v>
-      </c>
-      <c r="D58">
-        <v>868</v>
-      </c>
-      <c r="E58">
-        <v>2</v>
-      </c>
-      <c r="F58" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" t="s">
-        <v>6</v>
-      </c>
-      <c r="B59" t="s">
-        <v>67</v>
-      </c>
-      <c r="C59" t="s">
-        <v>70</v>
-      </c>
-      <c r="D59">
-        <v>863</v>
-      </c>
-      <c r="E59">
-        <v>2</v>
-      </c>
-      <c r="F59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" t="s">
-        <v>6</v>
-      </c>
-      <c r="B60" t="s">
-        <v>67</v>
-      </c>
-      <c r="C60" t="s">
-        <v>71</v>
-      </c>
-      <c r="D60" t="s">
-        <v>72</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" t="s">
-        <v>6</v>
-      </c>
-      <c r="B61" t="s">
-        <v>73</v>
-      </c>
-      <c r="C61" t="s">
-        <v>74</v>
-      </c>
-      <c r="D61">
-        <v>856</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="F61" t="s">
         <v>9</v>
       </c>
     </row>

--- a/scraper/top_remaining_spreadsheets_states/top_remaining_CO.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_CO.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
   <si>
     <t>STATE</t>
   </si>
@@ -44,7 +44,10 @@
     <t>Win SUM Ca$h</t>
   </si>
   <si>
-    <t>2019-03-12</t>
+    <t>2019-04-11</t>
+  </si>
+  <si>
+    <t>One Way Winning$</t>
   </si>
   <si>
     <t>Reindeer Game$</t>
@@ -53,27 +56,15 @@
     <t>Piece of the Prize</t>
   </si>
   <si>
-    <t>Bill Collector</t>
-  </si>
-  <si>
     <t>10X</t>
   </si>
   <si>
     <t>7-11-21</t>
   </si>
   <si>
-    <t>5X</t>
-  </si>
-  <si>
-    <t>2019-02-22</t>
-  </si>
-  <si>
     <t>$2.00 Games</t>
   </si>
   <si>
-    <t>Made of Money</t>
-  </si>
-  <si>
     <t>20X</t>
   </si>
   <si>
@@ -107,24 +98,24 @@
     <t>4X The Fun Crossword</t>
   </si>
   <si>
+    <t>Ne$t Egg Scramble</t>
+  </si>
+  <si>
     <t>Poker Pirate</t>
   </si>
   <si>
-    <t>Ne$t Egg Scramble</t>
-  </si>
-  <si>
     <t>Jumbo Quadrupler Crossword</t>
   </si>
   <si>
+    <t>Glowing Gift$</t>
+  </si>
+  <si>
+    <t>Poker Riche$</t>
+  </si>
+  <si>
     <t>30X</t>
   </si>
   <si>
-    <t>Glowing Gift$</t>
-  </si>
-  <si>
-    <t>Poker Riche$</t>
-  </si>
-  <si>
     <t>Loteria™</t>
   </si>
   <si>
@@ -146,12 +137,15 @@
     <t>50X</t>
   </si>
   <si>
+    <t>Give Me 5</t>
+  </si>
+  <si>
+    <t>Money Sign</t>
+  </si>
+  <si>
     <t>Colorado Wine Producers</t>
   </si>
   <si>
-    <t>Money Sign</t>
-  </si>
-  <si>
     <t>Holiday Riche$</t>
   </si>
   <si>
@@ -161,43 +155,40 @@
     <t>Super Very Berry Crossword</t>
   </si>
   <si>
+    <t>Buy In Buck$</t>
+  </si>
+  <si>
+    <t>Ca$h Cache</t>
+  </si>
+  <si>
+    <t>Super Special Cubed Bingo</t>
+  </si>
+  <si>
     <t>Dizzying Ca$h</t>
   </si>
   <si>
-    <t>Ca$h Cache</t>
-  </si>
-  <si>
-    <t>Super Special Cubed Bingo</t>
-  </si>
-  <si>
-    <t>MONEY MONEY MONEY</t>
-  </si>
-  <si>
     <t>$10.00 Games</t>
   </si>
   <si>
     <t>Win Again &amp; Again</t>
   </si>
   <si>
+    <t>$250,000 High Card Crossword</t>
+  </si>
+  <si>
     <t>100X</t>
   </si>
   <si>
+    <t>Illustrious Income</t>
+  </si>
+  <si>
+    <t>10 To Win</t>
+  </si>
+  <si>
     <t>$250,000 Crossword Dazzler</t>
   </si>
   <si>
-    <t>Illustrious Income</t>
-  </si>
-  <si>
-    <t>10 To Win</t>
-  </si>
-  <si>
-    <t>$250,000 Crossword Explosion!</t>
-  </si>
-  <si>
     <t>$500,000 Ca$h Fla$h</t>
-  </si>
-  <si>
-    <t>Willy Wonka Golden Ticket ™</t>
   </si>
   <si>
     <t>$20.00 Games</t>
@@ -560,7 +551,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,7 +593,7 @@
         <v>834</v>
       </c>
       <c r="E2">
-        <v>2722</v>
+        <v>2314</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -619,10 +610,10 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>894</v>
+        <v>877</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>5391</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -639,10 +630,10 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>825</v>
+        <v>894</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -659,10 +650,10 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <v>841</v>
+        <v>825</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -682,7 +673,7 @@
         <v>103</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -722,7 +713,7 @@
         <v>885</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -733,19 +724,19 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>858</v>
+        <v>104</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -753,13 +744,13 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
       <c r="D10">
-        <v>703</v>
+        <v>878</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -773,16 +764,16 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11">
-        <v>104</v>
+        <v>895</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -793,16 +784,16 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>878</v>
+        <v>109</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
@@ -813,13 +804,13 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>895</v>
+        <v>876</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -833,16 +824,16 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>876</v>
+        <v>864</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" t="s">
         <v>9</v>
@@ -853,16 +844,16 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D15">
-        <v>864</v>
+        <v>899</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
@@ -873,16 +864,16 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D16">
-        <v>899</v>
+        <v>830</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>2462</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
@@ -893,16 +884,16 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17">
-        <v>830</v>
+        <v>890</v>
       </c>
       <c r="E17">
-        <v>2602</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
@@ -913,16 +904,16 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D18">
-        <v>839</v>
+        <v>872</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -933,16 +924,16 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
         <v>26</v>
       </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
       <c r="D19">
-        <v>890</v>
+        <v>108</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
@@ -953,13 +944,13 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20">
-        <v>872</v>
+        <v>882</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -973,16 +964,16 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21">
-        <v>108</v>
+        <v>889</v>
       </c>
       <c r="E21">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -993,16 +984,16 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22">
-        <v>889</v>
+        <v>843</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -1013,16 +1004,16 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23">
-        <v>882</v>
+        <v>896</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="s">
         <v>9</v>
@@ -1033,16 +1024,16 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24">
-        <v>843</v>
+        <v>865</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="s">
         <v>9</v>
@@ -1053,16 +1044,16 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25">
         <v>105</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
@@ -1073,13 +1064,13 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D26">
-        <v>896</v>
+        <v>887</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1093,13 +1084,13 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D27">
-        <v>865</v>
+        <v>871</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1113,16 +1104,16 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
         <v>36</v>
       </c>
       <c r="D28">
-        <v>887</v>
+        <v>819</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -1133,16 +1124,16 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
         <v>37</v>
       </c>
       <c r="D29">
-        <v>871</v>
+        <v>892</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F29" t="s">
         <v>9</v>
@@ -1153,16 +1144,16 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
         <v>38</v>
       </c>
-      <c r="C30" t="s">
-        <v>39</v>
-      </c>
       <c r="D30">
-        <v>819</v>
+        <v>880</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" t="s">
         <v>9</v>
@@ -1173,13 +1164,13 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D31">
-        <v>892</v>
+        <v>106</v>
       </c>
       <c r="E31">
         <v>2</v>
@@ -1193,16 +1184,16 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D32">
-        <v>880</v>
+        <v>101</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
@@ -1213,16 +1204,16 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D33">
-        <v>106</v>
+        <v>866</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -1233,10 +1224,10 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D34">
         <v>870</v>
@@ -1253,13 +1244,13 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D35">
-        <v>866</v>
+        <v>897</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -1273,13 +1264,13 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D36">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="E36">
         <v>2</v>
@@ -1293,16 +1284,16 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D37">
-        <v>891</v>
+        <v>874</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37" t="s">
         <v>9</v>
@@ -1313,16 +1304,16 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D38">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F38" t="s">
         <v>9</v>
@@ -1333,13 +1324,13 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D39">
-        <v>845</v>
+        <v>883</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -1353,16 +1344,16 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D40">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="s">
         <v>9</v>
@@ -1373,13 +1364,13 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D41">
-        <v>873</v>
+        <v>845</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1393,16 +1384,16 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C42" t="s">
         <v>51</v>
       </c>
       <c r="D42">
-        <v>833</v>
+        <v>862</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F42" t="s">
         <v>9</v>
@@ -1413,16 +1404,16 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" t="s">
         <v>52</v>
       </c>
-      <c r="C43" t="s">
-        <v>53</v>
-      </c>
       <c r="D43">
-        <v>862</v>
+        <v>116</v>
       </c>
       <c r="E43">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F43" t="s">
         <v>9</v>
@@ -1433,10 +1424,10 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D44">
         <v>107</v>
@@ -1453,16 +1444,16 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D45">
-        <v>893</v>
+        <v>112</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F45" t="s">
         <v>9</v>
@@ -1473,16 +1464,16 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D46">
-        <v>112</v>
+        <v>881</v>
       </c>
       <c r="E46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F46" t="s">
         <v>9</v>
@@ -1493,16 +1484,16 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D47">
-        <v>881</v>
+        <v>893</v>
       </c>
       <c r="E47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F47" t="s">
         <v>9</v>
@@ -1513,13 +1504,13 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D48">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1533,16 +1524,16 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C49" t="s">
         <v>59</v>
       </c>
       <c r="D49">
-        <v>867</v>
+        <v>113</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
@@ -1553,16 +1544,16 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C50" t="s">
         <v>60</v>
       </c>
       <c r="D50">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F50" t="s">
         <v>9</v>
@@ -1573,16 +1564,16 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" t="s">
         <v>61</v>
       </c>
-      <c r="C51" t="s">
-        <v>62</v>
-      </c>
       <c r="D51">
-        <v>113</v>
+        <v>863</v>
       </c>
       <c r="E51">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F51" t="s">
         <v>9</v>
@@ -1593,16 +1584,16 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C52" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52" t="s">
         <v>63</v>
       </c>
-      <c r="D52">
-        <v>868</v>
-      </c>
       <c r="E52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F52" t="s">
         <v>9</v>
@@ -1613,58 +1604,18 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C53" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D53">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="E53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" t="s">
-        <v>6</v>
-      </c>
-      <c r="B54" t="s">
-        <v>61</v>
-      </c>
-      <c r="C54" t="s">
-        <v>65</v>
-      </c>
-      <c r="D54" t="s">
-        <v>66</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" t="s">
-        <v>6</v>
-      </c>
-      <c r="B55" t="s">
-        <v>67</v>
-      </c>
-      <c r="C55" t="s">
-        <v>68</v>
-      </c>
-      <c r="D55">
-        <v>856</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-      <c r="F55" t="s">
         <v>9</v>
       </c>
     </row>
